--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Npy2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Npy-Npy2r.xlsx
@@ -531,22 +531,22 @@
         <v>25</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.709067</v>
+        <v>1.13508</v>
       </c>
       <c r="H2">
-        <v>8.127200999999999</v>
+        <v>3.40524</v>
       </c>
       <c r="I2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="J2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.109048073951</v>
+        <v>0.04569037524000001</v>
       </c>
       <c r="R2">
-        <v>0.9814326655589999</v>
+        <v>0.41121337716</v>
       </c>
       <c r="S2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
       <c r="T2">
-        <v>0.670840434061904</v>
+        <v>0.1224366388308639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06190133333333334</v>
+        <v>0.672624</v>
       </c>
       <c r="H3">
-        <v>0.185704</v>
+        <v>2.017872</v>
       </c>
       <c r="I3">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="J3">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.002491714370666667</v>
+        <v>0.027075133872</v>
       </c>
       <c r="R3">
-        <v>0.022425429336</v>
+        <v>0.243676204848</v>
       </c>
       <c r="S3">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
       <c r="T3">
-        <v>0.01532849402482255</v>
+        <v>0.07255331937570129</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.267349666666667</v>
+        <v>7.463050333333332</v>
       </c>
       <c r="H4">
-        <v>3.802049</v>
+        <v>22.389151</v>
       </c>
       <c r="I4">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="J4">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.05101462613233334</v>
+        <v>0.3004101650676667</v>
       </c>
       <c r="R4">
-        <v>0.459131635191</v>
+        <v>2.703691485609</v>
       </c>
       <c r="S4">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934347</v>
       </c>
       <c r="T4">
-        <v>0.3138310719132735</v>
+        <v>0.8050100417934348</v>
       </c>
     </row>
   </sheetData>
